--- a/Thiết kế/Thiết kế giao diện/NgManDat/Quản lí danh mục Khách hàng.xlsx
+++ b/Thiết kế/Thiết kế giao diện/NgManDat/Quản lí danh mục Khách hàng.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\GitHub\CNPM\Thiết kế\Thiết kế giao diện\NgManDat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D5A7F6-18DF-44F0-9149-CBA4FE8BB046}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA145C80-7483-45F3-9076-A8E0E58EF261}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{93EB45F7-56C3-4B7A-8563-2AB1B894BB22}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{93EB45F7-56C3-4B7A-8563-2AB1B894BB22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -130,33 +130,18 @@
     <t>Menu</t>
   </si>
   <si>
-    <t>Chọn danh mục QLNV</t>
-  </si>
-  <si>
     <t>Menu_NhapHang</t>
   </si>
   <si>
-    <t>Chọn danh mục Nhập hàng</t>
-  </si>
-  <si>
     <t>Menu_BanHang</t>
   </si>
   <si>
-    <t>Chọn danh mục Bán hàng</t>
-  </si>
-  <si>
     <t>Menu_SanPham</t>
   </si>
   <si>
-    <t>Chọn danh mục Sản phẩm</t>
-  </si>
-  <si>
     <t>Menu_BaoCao</t>
   </si>
   <si>
-    <t>Hiển thị danh sách Menu Item trong Báo cáo</t>
-  </si>
-  <si>
     <t>MenuI_KhachHang</t>
   </si>
   <si>
@@ -239,6 +224,21 @@
   </si>
   <si>
     <t>Chọn xem thông tin khách hàng</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách các Menu Item trong QLNV</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách các Menu Item trong Nhập hàng</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách các Menu Item trong Bán hàng</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách các Menu Item trong Sản phẩm</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách các Menu Item trong Báo Cáo</t>
   </si>
 </sst>
 </file>
@@ -483,8 +483,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>973455</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -836,26 +836,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9BE349-BC58-4389-A7FE-3D2DE67A1BE9}">
-  <dimension ref="A27:G58"/>
+  <dimension ref="A27:I58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="27" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>5</v>
       </c>
@@ -901,7 +901,7 @@
       </c>
       <c r="D30" s="9"/>
     </row>
-    <row r="31" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>2</v>
       </c>
@@ -913,7 +913,7 @@
       </c>
       <c r="D31" s="9"/>
     </row>
-    <row r="32" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>3</v>
       </c>
@@ -925,7 +925,7 @@
       </c>
       <c r="D32" s="9"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>4</v>
       </c>
@@ -937,7 +937,7 @@
       </c>
       <c r="D33" s="9"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
         <v>5</v>
       </c>
@@ -949,7 +949,7 @@
       </c>
       <c r="D34" s="9"/>
     </row>
-    <row r="35" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
         <v>6</v>
       </c>
@@ -961,7 +961,7 @@
       </c>
       <c r="D35" s="9"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
         <v>7</v>
       </c>
@@ -973,7 +973,7 @@
       </c>
       <c r="D36" s="9"/>
     </row>
-    <row r="37" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11">
         <v>8</v>
       </c>
@@ -985,13 +985,18 @@
       </c>
       <c r="D37" s="13"/>
     </row>
-    <row r="39" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I38" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B39" s="6"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
         <v>0</v>
       </c>
@@ -1014,7 +1019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
         <v>1</v>
       </c>
@@ -1025,126 +1030,126 @@
         <v>32</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="9"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
         <v>2</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="9"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
         <v>3</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
         <v>4</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="9"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
         <v>5</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="9"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="10">
         <v>6</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="9"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="10">
         <v>7</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="9"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="10">
         <v>8</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
@@ -1155,13 +1160,13 @@
         <v>9</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
@@ -1172,13 +1177,13 @@
         <v>10</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
@@ -1189,13 +1194,13 @@
         <v>11</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
@@ -1206,13 +1211,13 @@
         <v>12</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
@@ -1223,13 +1228,13 @@
         <v>13</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
@@ -1240,13 +1245,13 @@
         <v>14</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
@@ -1257,13 +1262,13 @@
         <v>15</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
@@ -1274,10 +1279,10 @@
         <v>16</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>25</v>
@@ -1291,30 +1296,30 @@
         <v>17</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="9"/>
     </row>
-    <row r="58" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="11">
         <v>18</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C58" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E58" s="12"/>
       <c r="F58" s="12"/>
